--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.3626</v>
+        <v>-12.1526</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.8115</v>
+        <v>-21.88429999999999</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.368499999999995</v>
+        <v>-7.324999999999992</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.355599999999999</v>
+        <v>-7.2879</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.6877</v>
+        <v>-21.77670000000001</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.69019999999999</v>
+        <v>-21.80119999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.7253</v>
+        <v>-12.6302</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.05719999999998</v>
+        <v>-19.98859999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.61559999999998</v>
+        <v>-20.18759999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,10 +842,10 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.09389999999999</v>
+        <v>-12.64239999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.097699999999998</v>
+        <v>-7.950499999999995</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,16 +853,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.94929999999998</v>
+        <v>-22.05629999999998</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.29749999999999</v>
+        <v>-12.9495</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.388599999999997</v>
+        <v>-8.652099999999995</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.20389999999997</v>
+        <v>-21.25539999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.077</v>
+        <v>-13.2749</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.91789999999998</v>
+        <v>-20.81679999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.81629999999999</v>
+        <v>-12.50469999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.31469999999999</v>
+        <v>-13.1527</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.0984</v>
+        <v>-12.5743</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.40629999999998</v>
+        <v>-19.95399999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1134,7 +1134,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.301999999999991</v>
+        <v>-8.057999999999998</v>
       </c>
       <c r="E41" t="n">
         <v>16.34</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.45409999999999</v>
+        <v>-12.5927</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.60519999999999</v>
+        <v>-11.5922</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.088900000000002</v>
+        <v>-8.314400000000004</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.9169</v>
+        <v>-11.5709</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.33439999999999</v>
+        <v>-11.2076</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.70760000000002</v>
+        <v>-22.65810000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.121100000000004</v>
+        <v>-6.101400000000001</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.50829999999999</v>
+        <v>-13.49539999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,10 +1386,10 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.52599999999999</v>
+        <v>-11.9847</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.585699999999997</v>
+        <v>-8.019100000000003</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.90489999999999</v>
+        <v>-21.93059999999999</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.09919999999999</v>
+        <v>-13.03339999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.414099999999999</v>
+        <v>-8.779999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.124800000000004</v>
+        <v>-8.219200000000003</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.5447</v>
+        <v>-22.39639999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-13.4181</v>
+        <v>-13.09179999999999</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.880500000000001</v>
+        <v>-7.906799999999996</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.799400000000004</v>
+        <v>-7.934400000000005</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.861299999999999</v>
+        <v>-7.9284</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.83659999999999</v>
+        <v>-21.83639999999998</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61070000000001</v>
+        <v>-21.5707</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.312299999999994</v>
+        <v>-7.537599999999995</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.438899999999995</v>
+        <v>-7.415899999999999</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.67650000000001</v>
+        <v>-12.87520000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.5453</v>
+        <v>-12.00680000000001</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.79779999999999</v>
+        <v>-20.44900000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.77289999999999</v>
+        <v>-21.9151</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.761400000000002</v>
+        <v>-7.594399999999998</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.3162</v>
+        <v>-10.3101</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.635000000000003</v>
+        <v>-5.627300000000003</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.2423</v>
+        <v>-12.414</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.40520000000002</v>
+        <v>-21.38470000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.6183</v>
+        <v>-10.6412</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.97029999999999</v>
+        <v>-20.73839999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.553199999999997</v>
+        <v>-8.694599999999998</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.98109999999999</v>
+        <v>-21.83149999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.078600000000002</v>
+        <v>-8.224600000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.778599999999996</v>
+        <v>-7.845699999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
